--- a/Results/Bayes_medurge_summary.xlsx
+++ b/Results/Bayes_medurge_summary.xlsx
@@ -416,10 +416,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.414</v>
+        <v>-0.337</v>
       </c>
       <c r="C2">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="D2">
         <v>0.002</v>
@@ -428,19 +428,19 @@
         <v>0.003</v>
       </c>
       <c r="F2">
-        <v>-1.438</v>
+        <v>-2.812</v>
       </c>
       <c r="G2">
-        <v>-0.207</v>
+        <v>-1.157</v>
       </c>
       <c r="H2">
-        <v>0.411</v>
+        <v>-0.335</v>
       </c>
       <c r="I2">
-        <v>1.034</v>
+        <v>0.487</v>
       </c>
       <c r="J2">
-        <v>2.269</v>
+        <v>2.127</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.596</v>
+        <v>0.058</v>
       </c>
       <c r="C3">
-        <v>1.002</v>
+        <v>1.328</v>
       </c>
       <c r="D3">
         <v>0.002</v>
@@ -462,19 +462,19 @@
         <v>0.003</v>
       </c>
       <c r="F3">
-        <v>-1.378</v>
+        <v>-2.567</v>
       </c>
       <c r="G3">
-        <v>-0.067</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="H3">
-        <v>0.593</v>
+        <v>0.058</v>
       </c>
       <c r="I3">
-        <v>1.258</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J3">
-        <v>2.581</v>
+        <v>2.668</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +484,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.827</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C4">
-        <v>1.006</v>
+        <v>1.342</v>
       </c>
       <c r="D4">
         <v>0.002</v>
@@ -496,19 +496,19 @@
         <v>0.003</v>
       </c>
       <c r="F4">
-        <v>-1.146</v>
+        <v>-1.835</v>
       </c>
       <c r="G4">
-        <v>0.162</v>
+        <v>-0.082</v>
       </c>
       <c r="H4">
-        <v>0.825</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="I4">
-        <v>1.492</v>
+        <v>1.698</v>
       </c>
       <c r="J4">
-        <v>2.821</v>
+        <v>3.449</v>
       </c>
     </row>
     <row r="5">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>-0.35</v>
+        <v>0.018</v>
       </c>
       <c r="C5">
-        <v>0.929</v>
+        <v>1.252</v>
       </c>
       <c r="D5">
         <v>0.002</v>
@@ -530,19 +530,19 @@
         <v>0.003</v>
       </c>
       <c r="F5">
-        <v>-2.177</v>
+        <v>-2.457</v>
       </c>
       <c r="G5">
-        <v>-0.965</v>
+        <v>-0.805</v>
       </c>
       <c r="H5">
-        <v>-0.354</v>
+        <v>0.015</v>
       </c>
       <c r="I5">
-        <v>0.264</v>
+        <v>0.843</v>
       </c>
       <c r="J5">
-        <v>1.492</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.356</v>
+        <v>0.187</v>
       </c>
       <c r="C6">
-        <v>0.479</v>
+        <v>0.39</v>
       </c>
       <c r="D6">
         <v>0.001</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -586,10 +586,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.437</v>
+        <v>0.298</v>
       </c>
       <c r="C7">
-        <v>0.496</v>
+        <v>0.457</v>
       </c>
       <c r="D7">
         <v>0.001</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.53</v>
+        <v>0.518</v>
       </c>
       <c r="C8">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <v>0.001</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.115</v>
+        <v>0.275</v>
       </c>
       <c r="C9">
-        <v>0.319</v>
+        <v>0.446</v>
       </c>
       <c r="D9">
         <v>0.001</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.525</v>
+        <v>0.178</v>
       </c>
       <c r="C10">
-        <v>0.499</v>
+        <v>0.383</v>
       </c>
       <c r="D10">
         <v>0.001</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -722,16 +722,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.63</v>
+        <v>0.006</v>
       </c>
       <c r="C11">
-        <v>0.483</v>
+        <v>0.079</v>
       </c>
       <c r="D11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.982</v>
+        <v>0.006</v>
       </c>
       <c r="C12">
-        <v>0.134</v>
+        <v>0.079</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -768,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.278</v>
+        <v>0.008</v>
       </c>
       <c r="C13">
-        <v>0.448</v>
+        <v>0.089</v>
       </c>
       <c r="D13">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.475</v>
+        <v>0.318</v>
       </c>
       <c r="C14">
-        <v>0.499</v>
+        <v>0.466</v>
       </c>
       <c r="D14">
         <v>0.001</v>
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.381</v>
+        <v>0.328</v>
       </c>
       <c r="C15">
-        <v>0.486</v>
+        <v>0.47</v>
       </c>
       <c r="D15">
         <v>0.001</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.399</v>
+        <v>0.632</v>
       </c>
       <c r="C16">
-        <v>0.49</v>
+        <v>0.482</v>
       </c>
       <c r="D16">
         <v>0.001</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.5570000000000001</v>
+        <v>0.383</v>
       </c>
       <c r="C17">
-        <v>0.497</v>
+        <v>0.486</v>
       </c>
       <c r="D17">
         <v>0.001</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.369</v>
+        <v>0.312</v>
       </c>
       <c r="C18">
-        <v>0.482</v>
+        <v>0.463</v>
       </c>
       <c r="D18">
         <v>0.001</v>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.609</v>
+        <v>0.269</v>
       </c>
       <c r="C19">
-        <v>0.488</v>
+        <v>0.444</v>
       </c>
       <c r="D19">
         <v>0.001</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.91</v>
+        <v>0.323</v>
       </c>
       <c r="C20">
-        <v>0.286</v>
+        <v>0.467</v>
       </c>
       <c r="D20">
         <v>0.001</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1062,10 +1062,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.155</v>
+        <v>0.384</v>
       </c>
       <c r="C21">
-        <v>0.362</v>
+        <v>0.486</v>
       </c>
       <c r="D21">
         <v>0.001</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.319</v>
+        <v>0.411</v>
       </c>
       <c r="C22">
-        <v>0.466</v>
+        <v>0.492</v>
       </c>
       <c r="D22">
         <v>0.001</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.509</v>
+        <v>0.395</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="D23">
         <v>0.001</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.344</v>
+        <v>0.421</v>
       </c>
       <c r="C24">
-        <v>0.475</v>
+        <v>0.494</v>
       </c>
       <c r="D24">
         <v>0.001</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.242</v>
+        <v>0.431</v>
       </c>
       <c r="C25">
-        <v>0.428</v>
+        <v>0.495</v>
       </c>
       <c r="D25">
         <v>0.001</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>0.194</v>
+        <v>0.396</v>
       </c>
       <c r="C26">
-        <v>0.395</v>
+        <v>0.489</v>
       </c>
       <c r="D26">
         <v>0.001</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>0.166</v>
+        <v>0.271</v>
       </c>
       <c r="C27">
-        <v>0.372</v>
+        <v>0.445</v>
       </c>
       <c r="D27">
         <v>0.001</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>0.294</v>
+        <v>0.871</v>
       </c>
       <c r="C28">
-        <v>0.456</v>
+        <v>0.336</v>
       </c>
       <c r="D28">
         <v>0.001</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.264</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="C29">
-        <v>0.441</v>
+        <v>0.388</v>
       </c>
       <c r="D29">
         <v>0.001</v>
@@ -1349,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.577</v>
+        <v>0.313</v>
       </c>
       <c r="C30">
-        <v>0.494</v>
+        <v>0.464</v>
       </c>
       <c r="D30">
         <v>0.001</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.476</v>
+        <v>0.599</v>
       </c>
       <c r="C31">
-        <v>0.499</v>
+        <v>0.49</v>
       </c>
       <c r="D31">
         <v>0.001</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.539</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C32">
-        <v>0.498</v>
+        <v>0.388</v>
       </c>
       <c r="D32">
         <v>0.001</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.8070000000000001</v>
+        <v>0.626</v>
       </c>
       <c r="C33">
-        <v>0.395</v>
+        <v>0.484</v>
       </c>
       <c r="D33">
         <v>0.001</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="C34">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="D34">
         <v>0.001</v>
@@ -1538,10 +1538,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.977</v>
+        <v>0.991</v>
       </c>
       <c r="C35">
-        <v>0.149</v>
+        <v>0.093</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.971</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C36">
-        <v>0.168</v>
+        <v>0.239</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.616</v>
+        <v>0.928</v>
       </c>
       <c r="C37">
-        <v>0.486</v>
+        <v>0.258</v>
       </c>
       <c r="D37">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>0.461</v>
+        <v>0.408</v>
       </c>
       <c r="C38">
-        <v>0.498</v>
+        <v>0.491</v>
       </c>
       <c r="D38">
         <v>0.001</v>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.547</v>
+        <v>0.242</v>
       </c>
       <c r="C39">
-        <v>0.498</v>
+        <v>0.428</v>
       </c>
       <c r="D39">
         <v>0.001</v>
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="C40">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="D40">
         <v>0.001</v>
@@ -1742,10 +1742,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>0.147</v>
+        <v>0.346</v>
       </c>
       <c r="C41">
-        <v>0.354</v>
+        <v>0.476</v>
       </c>
       <c r="D41">
         <v>0.001</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.524</v>
+        <v>0.49</v>
       </c>
       <c r="C42">
-        <v>0.499</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
         <v>0.001</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>0.266</v>
+        <v>0.455</v>
       </c>
       <c r="C43">
-        <v>0.442</v>
+        <v>0.498</v>
       </c>
       <c r="D43">
         <v>0.001</v>
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>0.261</v>
+        <v>0.748</v>
       </c>
       <c r="C44">
-        <v>0.439</v>
+        <v>0.434</v>
       </c>
       <c r="D44">
         <v>0.001</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.235</v>
+        <v>0.65</v>
       </c>
       <c r="C45">
-        <v>0.424</v>
+        <v>0.477</v>
       </c>
       <c r="D45">
         <v>0.001</v>
@@ -1896,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -1912,10 +1912,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.105</v>
+        <v>0.654</v>
       </c>
       <c r="C46">
-        <v>0.306</v>
+        <v>0.476</v>
       </c>
       <c r="D46">
         <v>0.001</v>
@@ -1930,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -1946,16 +1946,16 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.481</v>
+        <v>0.665</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>0.472</v>
       </c>
       <c r="D47">
         <v>0.001</v>
       </c>
       <c r="E47">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1980,10 +1980,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.307</v>
+        <v>0.889</v>
       </c>
       <c r="C48">
-        <v>0.461</v>
+        <v>0.314</v>
       </c>
       <c r="D48">
         <v>0.001</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.002</v>
+        <v>0.584</v>
       </c>
       <c r="C49">
-        <v>0.049</v>
+        <v>0.493</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2032,13 +2032,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.281</v>
+        <v>0.589</v>
       </c>
       <c r="C50">
-        <v>0.449</v>
+        <v>0.492</v>
       </c>
       <c r="D50">
         <v>0.001</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2082,10 +2082,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.382</v>
+        <v>0.586</v>
       </c>
       <c r="C51">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="D51">
         <v>0.001</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2116,10 +2116,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.248</v>
+        <v>0.599</v>
       </c>
       <c r="C52">
-        <v>0.432</v>
+        <v>0.49</v>
       </c>
       <c r="D52">
         <v>0.001</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.249</v>
+        <v>0.862</v>
       </c>
       <c r="C53">
-        <v>0.433</v>
+        <v>0.345</v>
       </c>
       <c r="D53">
         <v>0.001</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.356</v>
+        <v>0.408</v>
       </c>
       <c r="C54">
-        <v>0.479</v>
+        <v>0.491</v>
       </c>
       <c r="D54">
         <v>0.001</v>
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.293</v>
+        <v>0.42</v>
       </c>
       <c r="C55">
-        <v>0.455</v>
+        <v>0.493</v>
       </c>
       <c r="D55">
         <v>0.001</v>
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>0.365</v>
+        <v>0.445</v>
       </c>
       <c r="C56">
-        <v>0.482</v>
+        <v>0.497</v>
       </c>
       <c r="D56">
         <v>0.001</v>
@@ -2286,10 +2286,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.283</v>
+        <v>0.454</v>
       </c>
       <c r="C57">
-        <v>0.451</v>
+        <v>0.498</v>
       </c>
       <c r="D57">
         <v>0.001</v>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.502</v>
+        <v>0.41</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
       <c r="D58">
         <v>0.001</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2354,10 +2354,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>0.574</v>
+        <v>0.392</v>
       </c>
       <c r="C59">
-        <v>0.495</v>
+        <v>0.488</v>
       </c>
       <c r="D59">
         <v>0.001</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.322</v>
+        <v>0.416</v>
       </c>
       <c r="C60">
-        <v>0.467</v>
+        <v>0.493</v>
       </c>
       <c r="D60">
         <v>0.001</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>0.345</v>
+        <v>0.43</v>
       </c>
       <c r="C61">
-        <v>0.475</v>
+        <v>0.495</v>
       </c>
       <c r="D61">
         <v>0.001</v>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.344</v>
+        <v>0.267</v>
       </c>
       <c r="C62">
-        <v>0.475</v>
+        <v>0.443</v>
       </c>
       <c r="D62">
         <v>0.001</v>
@@ -2490,10 +2490,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.374</v>
+        <v>0.27</v>
       </c>
       <c r="C63">
-        <v>0.484</v>
+        <v>0.444</v>
       </c>
       <c r="D63">
         <v>0.001</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>0.348</v>
+        <v>0.495</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
       <c r="D64">
         <v>0.001</v>
@@ -2558,10 +2558,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.386</v>
+        <v>0.233</v>
       </c>
       <c r="C65">
-        <v>0.487</v>
+        <v>0.423</v>
       </c>
       <c r="D65">
         <v>0.001</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.267</v>
+        <v>0.229</v>
       </c>
       <c r="C66">
-        <v>0.442</v>
+        <v>0.42</v>
       </c>
       <c r="D66">
         <v>0.001</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>0.463</v>
+        <v>0.355</v>
       </c>
       <c r="C67">
-        <v>0.499</v>
+        <v>0.479</v>
       </c>
       <c r="D67">
         <v>0.001</v>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>0.12</v>
+        <v>0.418</v>
       </c>
       <c r="C68">
-        <v>0.325</v>
+        <v>0.493</v>
       </c>
       <c r="D68">
         <v>0.001</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>0.261</v>
+        <v>0.437</v>
       </c>
       <c r="C69">
-        <v>0.439</v>
+        <v>0.496</v>
       </c>
       <c r="D69">
         <v>0.001</v>
@@ -2728,16 +2728,16 @@
         </is>
       </c>
       <c r="B70">
-        <v>0.524</v>
+        <v>0.336</v>
       </c>
       <c r="C70">
-        <v>0.499</v>
+        <v>0.472</v>
       </c>
       <c r="D70">
         <v>0.001</v>
       </c>
       <c r="E70">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.472</v>
+        <v>0.576</v>
       </c>
       <c r="C71">
-        <v>0.499</v>
+        <v>0.494</v>
       </c>
       <c r="D71">
         <v>0.001</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>0.44</v>
+        <v>0.623</v>
       </c>
       <c r="C72">
-        <v>0.496</v>
+        <v>0.485</v>
       </c>
       <c r="D72">
         <v>0.001</v>
@@ -2814,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -2830,16 +2830,16 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.466</v>
+        <v>0.256</v>
       </c>
       <c r="C73">
-        <v>0.499</v>
+        <v>0.436</v>
       </c>
       <c r="D73">
         <v>0.001</v>
       </c>
       <c r="E73">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2864,31 +2864,31 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.827</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0.378</v>
+        <v>0.01</v>
       </c>
       <c r="D74">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>0.235</v>
+        <v>0.138</v>
       </c>
       <c r="C75">
-        <v>0.424</v>
+        <v>0.345</v>
       </c>
       <c r="D75">
         <v>0.001</v>
@@ -2932,10 +2932,10 @@
         </is>
       </c>
       <c r="B76">
-        <v>0.359</v>
+        <v>0.135</v>
       </c>
       <c r="C76">
-        <v>0.48</v>
+        <v>0.342</v>
       </c>
       <c r="D76">
         <v>0.001</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -2966,16 +2966,16 @@
         </is>
       </c>
       <c r="B77">
-        <v>0.183</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>0.387</v>
+        <v>0.006</v>
       </c>
       <c r="D77">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3000,16 +3000,16 @@
         </is>
       </c>
       <c r="B78">
-        <v>0.525</v>
+        <v>0.035</v>
       </c>
       <c r="C78">
-        <v>0.499</v>
+        <v>0.183</v>
       </c>
       <c r="D78">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3018,10 +3018,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3034,10 +3034,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>0.386</v>
+        <v>0.128</v>
       </c>
       <c r="C79">
-        <v>0.487</v>
+        <v>0.335</v>
       </c>
       <c r="D79">
         <v>0.001</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>1</v>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>0.8139999999999999</v>
+        <v>0.716</v>
       </c>
       <c r="C80">
-        <v>0.389</v>
+        <v>0.451</v>
       </c>
       <c r="D80">
         <v>0.001</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3102,10 +3102,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>0.479</v>
+        <v>0.122</v>
       </c>
       <c r="C81">
-        <v>0.5</v>
+        <v>0.328</v>
       </c>
       <c r="D81">
         <v>0.001</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>0.608</v>
+        <v>0.36</v>
       </c>
       <c r="C82">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
       <c r="D82">
         <v>0.001</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>0.722</v>
+        <v>0.27</v>
       </c>
       <c r="C83">
-        <v>0.448</v>
+        <v>0.444</v>
       </c>
       <c r="D83">
         <v>0.001</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3204,10 +3204,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>0.608</v>
+        <v>0.255</v>
       </c>
       <c r="C84">
-        <v>0.488</v>
+        <v>0.436</v>
       </c>
       <c r="D84">
         <v>0.001</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3238,10 +3238,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>0.456</v>
+        <v>0.528</v>
       </c>
       <c r="C85">
-        <v>0.498</v>
+        <v>0.499</v>
       </c>
       <c r="D85">
         <v>0.001</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>0.163</v>
+        <v>0.41</v>
       </c>
       <c r="C86">
-        <v>0.37</v>
+        <v>0.492</v>
       </c>
       <c r="D86">
         <v>0.001</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>0.162</v>
+        <v>0.394</v>
       </c>
       <c r="C87">
-        <v>0.368</v>
+        <v>0.489</v>
       </c>
       <c r="D87">
         <v>0.001</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>1</v>
@@ -3340,10 +3340,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>0.5679999999999999</v>
+        <v>0.419</v>
       </c>
       <c r="C88">
-        <v>0.495</v>
+        <v>0.493</v>
       </c>
       <c r="D88">
         <v>0.001</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>0.157</v>
+        <v>0.429</v>
       </c>
       <c r="C89">
-        <v>0.364</v>
+        <v>0.495</v>
       </c>
       <c r="D89">
         <v>0.001</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89">
         <v>1</v>
